--- a/ProjectTracker.xlsx
+++ b/ProjectTracker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" backupFile="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="301">
   <si>
     <t>Article</t>
   </si>
@@ -63,30 +63,15 @@
     <t>Need new ways to evaluate player performance, home team advantage, momentum, synergies between different combos of players</t>
   </si>
   <si>
-    <t>Administrative/Academic Support</t>
-  </si>
-  <si>
-    <t>Find someone who might offer guidance on the process of publishing, building out the project</t>
-  </si>
-  <si>
-    <t>Find a medium</t>
-  </si>
-  <si>
     <t>Need more ideas/literature review</t>
   </si>
   <si>
-    <t>Need an outlet for the project, preferably a Penn affiliated journal or something for student work</t>
-  </si>
-  <si>
     <t>Technical</t>
   </si>
   <si>
     <t>Theoretical</t>
   </si>
   <si>
-    <t>Administrative</t>
-  </si>
-  <si>
     <t>Caching</t>
   </si>
   <si>
@@ -316,19 +301,752 @@
   </si>
   <si>
     <t xml:space="preserve">   102293   21.574    0.000  244.621    0.002 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/bs4/element.py:506(_find_all)</t>
+  </si>
+  <si>
+    <t>It appears that on a full season's run, a significant amount of time is spent in the Requests, HTTPLIB, and BS4 packages.  I guess this makes sense since so many calls must be made.  I am switching to the lxml's HTML parser, which is supposedly faster, though it is possible that this will affect the parse tree created.  Also might consider reading in the entire 2015-6 season once, then pulling games from this as needed.  This would cut down requests (and associated connection crashes), though it could be costly in BS4 searches and difficult to implement.</t>
+  </si>
+  <si>
+    <t>FULL RUN-NO PCA, LinearSVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.004    0.004 2317.740 2317.740 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:221(run_and_analyze)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.027    0.027 2317.272 2317.272 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:171(simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      170    1.254    0.007 2280.532   13.415 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:62(create_matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1297.082    1.134 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:56(get)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.018    0.000 1297.059    1.134 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:17(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.026    0.000 1296.113    1.133 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:392(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.041    0.000 1294.674    1.132 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:542(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30897 1193.559    0.039 1193.559    0.039 {method 'recv' of '_socket.socket' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1033.424    0.903 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/adapters.py:329(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.030    0.000 1032.636    0.903 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:436(urlopen)</t>
+  </si>
+  <si>
+    <t>FULL RUN-NO PCA, K-Neighbors Regressor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.004    0.004 2369.014 2369.014 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:221(run_and_analyze)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.023    0.023 2368.422 2368.422 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:171(simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      170    1.141    0.007 2366.992   13.923 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:62(create_matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1453.638    1.271 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:56(get)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.018    0.000 1453.615    1.271 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:17(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.024    0.000 1452.679    1.270 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:392(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.043    0.000 1451.221    1.269 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:542(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30293 1313.623    0.043 1313.623    0.043 {method 'recv' of '_socket.socket' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1166.973    1.020 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/adapters.py:329(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.031    0.000 1166.186    1.019 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:436(urlopen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.058    0.000 1165.813    1.019 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:321(_make_request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.025    0.000 1033.512    0.903 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:1009(getresponse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.036    0.000 1033.457    0.903 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:402(begin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17156    0.185    0.000 1033.217    0.060 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/socket.py:406(readline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.037    0.000 1032.959    0.903 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:363(_read_status)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.004    0.004 2390.564 2390.564 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:221(run_and_analyze)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.026    0.026 2389.780 2389.780 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:171(simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      170    1.144    0.007 2384.285   14.025 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:62(create_matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1462.862    1.279 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:56(get)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.019    0.000 1462.838    1.279 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:17(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.025    0.000 1461.980    1.278 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:392(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.043    0.000 1460.619    1.277 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:542(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35824 1333.269    0.037 1333.269    0.037 {method 'recv' of '_socket.socket' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1119.447    0.979 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/adapters.py:329(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.031    0.000 1118.652    0.978 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:436(urlopen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.058    0.000 1118.277    0.978 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:321(_make_request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17156    0.183    0.000  997.600    0.058 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/socket.py:406(readline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.025    0.000  996.434    0.871 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:1009(getresponse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.035    0.000  996.379    0.871 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:402(begin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.037    0.000  995.877    0.871 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:363(_read_status)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.037    0.000  616.733    0.539 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/bs4/__init__.py:82(__init__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.007    0.000  616.628    0.539 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/bs4/__init__.py:235(_feed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.008    0.000  616.605    0.539 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/bs4/builder/_lxml.py:236(feed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144   77.942    0.068  616.551    0.539 {method 'feed' of 'lxml.etree._FeedParser' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3432    0.014    0.000  340.948    0.099 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/models.py:723(content)</t>
+  </si>
+  <si>
+    <t>FULL RUN-NO PCA, Decision Tree Regressor</t>
+  </si>
+  <si>
+    <t>Interestingly, it appears that some models run quicker than Linear Regression (Decision Tree, Kneighbors, etc.)</t>
+  </si>
+  <si>
+    <t>FULL RUN-NO PCA, Bagging Regressor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.005    0.005 2443.663 2443.663 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:221(run_and_analyze)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.026    0.026 2442.942 2442.942 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:171(simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      170    1.093    0.006 2408.613   14.168 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:62(create_matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.022    0.000 1497.758    1.309 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:56(get)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.018    0.000 1497.735    1.309 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:17(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1497.005    1.309 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:392(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.041    0.000 1495.311    1.307 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:542(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34717 1371.362    0.040 1371.362    0.040 {method 'recv' of '_socket.socket' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1170.110    1.023 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/adapters.py:329(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.031    0.000 1169.357    1.022 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:436(urlopen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.058    0.000 1169.000    1.022 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:321(_make_request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17156    0.166    0.000 1050.435    0.061 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/socket.py:406(readline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.025    0.000 1050.292    0.918 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:1009(getresponse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.033    0.000 1050.237    0.918 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:402(begin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.034    0.000 1049.777    0.918 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:363(_read_status)</t>
+  </si>
+  <si>
+    <t>So far, K-Neighbors has beat all the other estimators, even the Bagging meta estimator.  Decision Tree appears to be fairly weak, which isn't completely unexpected.  The Bagging estimator uses a decision tree (what kind? Deep?) as its base estimator.  Will try changing it to K-Neighbors to see if we get better results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.004    0.004 2377.128 2377.128 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:221(run_and_analyze)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.027    0.027 2376.492 2376.492 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:171(simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      170    1.097    0.006 2356.046   13.859 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:62(create_matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.022    0.000 1448.369    1.266 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:56(get)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.017    0.000 1448.346    1.266 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:17(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1447.609    1.265 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:392(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.042    0.000 1446.304    1.264 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:542(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32507 1278.681    0.039 1278.681    0.039 {method 'recv' of '_socket.socket' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1171.350    1.024 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/adapters.py:329(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.030    0.000 1170.593    1.023 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:436(urlopen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.056    0.000 1170.241    1.023 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:321(_make_request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17156    0.156    0.000 1007.693    0.059 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/socket.py:406(readline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.024    0.000 1007.642    0.881 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:1009(getresponse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.031    0.000 1007.589    0.881 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:402(begin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.033    0.000 1007.156    0.880 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:363(_read_status)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.036    0.000  604.420    0.528 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/bs4/__init__.py:82(__init__)</t>
+  </si>
+  <si>
+    <t>FULL RUN-NO PCA, ExtraTreesRegressor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.005    0.005 2352.337 2352.337 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:221(run_and_analyze)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.027    0.027 2351.537 2351.537 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:171(simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      170    1.163    0.007 2340.560   13.768 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:62(create_matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1382.278    1.208 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:56(get)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.018    0.000 1382.254    1.208 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:17(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.024    0.000 1381.309    1.207 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:392(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.043    0.000 1379.988    1.206 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:542(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32515 1269.938    0.039 1269.938    0.039 {method 'recv' of '_socket.socket' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1053.283    0.921 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/adapters.py:329(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.031    0.000 1052.506    0.920 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:436(urlopen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.055    0.000 1052.143    0.920 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:321(_make_request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17156    0.164    0.000  949.158    0.055 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/socket.py:406(readline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.024    0.000  947.296    0.828 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:1009(getresponse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.031    0.000  947.243    0.828 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:402(begin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.033    0.000  946.798    0.828 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:363(_read_status)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.038    0.000  641.077    0.560 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/bs4/__init__.py:82(__init__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.007    0.000  640.971    0.560 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/bs4/__init__.py:235(_feed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.008    0.000  640.948    0.560 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/bs4/builder/_lxml.py:236(feed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.008    0.008 3332.014 3332.014 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:221(run_and_analyze)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.025    0.025 3331.176 3331.176 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:171(simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      170    1.057    0.006 2213.015   13.018 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:62(create_matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.022    0.000 1318.982    1.153 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:56(get)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.017    0.000 1318.959    1.153 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:17(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.126    0.000 1317.944    1.152 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:392(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.039    0.000 1316.493    1.151 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:542(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    28010 1214.592    0.043 1214.592    0.043 {method 'recv' of '_socket.socket' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      162    0.001    0.000 1107.620    6.837 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/sklearn/ensemble/weight_boosting.py:928(fit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      162    0.694    0.004 1107.619    6.837 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/sklearn/ensemble/weight_boosting.py:73(fit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     8100    3.401    0.000 1106.806    0.137 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/sklearn/ensemble/weight_boosting.py:962(_boost)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16150    0.469    0.000 1080.960    0.067 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/sklearn/neighbors/regression.py:128(predict)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16150    0.413    0.000 1078.788    0.067 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/sklearn/neighbors/base.py:287(kneighbors)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16150    0.253    0.000 1076.905    0.067 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/sklearn/externals/joblib/parallel.py:759(__call__)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32300    0.223    0.000 1076.369    0.033 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/sklearn/externals/joblib/parallel.py:596(dispatch_one_batch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16150    0.110    0.000 1075.487    0.067 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/sklearn/externals/joblib/parallel.py:554(_dispatch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16150    0.049    0.000 1075.314    0.067 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/sklearn/externals/joblib/parallel.py:177(__init__)</t>
+  </si>
+  <si>
+    <t>FULL RUN-No PCA, Bagging Regressor with K-Neighbors Base</t>
+  </si>
+  <si>
+    <t>FULL-NPCA, AdaBoost</t>
+  </si>
+  <si>
+    <t>FULL-NPCA, Gaussian Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.037    0.037 2685.678 2685.678 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:221(run_and_analyze)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.217    0.217 2684.164 2684.164 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:171(simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      170    1.315    0.008 2570.828   15.123 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:62(create_matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1565.130    1.368 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:56(get)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.019    0.000 1565.106    1.368 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:17(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.026    0.000 1564.202    1.367 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:392(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.042    0.000 1562.768    1.366 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:542(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30831 1438.453    0.047 1438.453    0.047 {method 'recv' of '_socket.socket' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1309.855    1.145 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/adapters.py:329(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.031    0.000 1308.931    1.144 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:436(urlopen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.055    0.000 1308.557    1.144 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:321(_make_request)</t>
+  </si>
+  <si>
+    <t>One way to do this may be to break down results by team.  It is possible that the model is more predictive for certain teams than for others. Also, it is necessary to see if close results are on the right side of the spread, since both are necessary for the prediction to be good, especially since spreads are often just a few points.</t>
+  </si>
+  <si>
+    <t>This is an industry measure, and comparing it to my estimator will give an idea of how we are doing</t>
+  </si>
+  <si>
+    <t>Establish an objective</t>
+  </si>
+  <si>
+    <t>Project needs some underlying hypothesis/technique to test</t>
+  </si>
+  <si>
+    <t>Project objective</t>
+  </si>
+  <si>
+    <t>One idea is to make an estimator of estimators: implement different measures of team success (Pythag, player efficiencies, etc.) and get a prediction from each of them, then somehow build an estimator from those estimates</t>
+  </si>
+  <si>
+    <t>FULL-NPCA, Ridge Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.004    0.004 2384.388 2384.388 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:221(run_and_analyze)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1    0.025    0.025 2382.929 2382.929 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:171(simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      170    1.206    0.007 2381.877   14.011 /Users/Alex/Documents/CIS192/FinalProject/TeamSimulation.py:62(create_matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.024    0.000 1397.799    1.222 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:56(get)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.017    0.000 1397.775    1.222 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/api.py:17(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.024    0.000 1396.309    1.221 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:392(request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.041    0.000 1394.967    1.219 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/sessions.py:542(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32589 1290.807    0.040 1290.807    0.040 {method 'recv' of '_socket.socket' objects}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1127.455    0.986 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/adapters.py:329(send)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.030    0.000 1126.673    0.985 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:436(urlopen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.055    0.000 1126.311    0.985 /Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/site-packages/requests/packages/urllib3/connectionpool.py:321(_make_request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17156    0.164    0.000 1028.107    0.060 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/socket.py:406(readline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1144    0.023    0.000 1027.177    0.898 /System/Library/Frameworks/Python.framework/Versions/2.7/lib/python2.7/httplib.py:1009(getresponse)</t>
+  </si>
+  <si>
+    <t>Pythag Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe read into this before proceeding.  The details of the calculations don't seem to make sense. Ex. Output = Team 1 offensive pctge x team 2 defensive pctge x nba average.  This means that if team 2 has an above average defense, it drives Team 1's output up.  That doesn't make sense. </t>
+  </si>
+  <si>
+    <t>From various sources, the exponent used for the Pythag is 11, or between 13.5 and 16</t>
+  </si>
+  <si>
+    <t>Must consider that the pythag in its simplest formulation assumes that all goals scored/allowed have an equal impact on the outcome of a game, which is not the case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luck can be quantified based on the difference between expected wins and actual wins.  </t>
+  </si>
+  <si>
+    <t>May be worth examining the role that luck has-could see if some teams are consistently lucky due to consistent deviation from the pythag</t>
+  </si>
+  <si>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>Fucks sake.  I mislabelled the teams displayed on the excel sheets.  They are actually showing the opponent ID (e.g. -12 target for DET means DET actually won the game by 12, didn't lose).  This has no effect on the model, but it does mean that all the postprocessing analysis on a team by team basis would need to be redone.  Would need to rewrite every one of those excel files, which would take forever</t>
+  </si>
+  <si>
+    <t>May be worth examining other types of bets, particularly the over/under, since this is exceedingly simple and easy to implement predictions and expected returns for</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1412.0248v1.pdf</t>
+  </si>
+  <si>
+    <t>The Idea of this paper was to provide win probabilities (not a 0, 1 outcome) for the NCAA tournament.  The two metrics that they used for this were efficiency ratings based on possession and the Vegas spreads for given games.  The model was a logistic regression</t>
+  </si>
+  <si>
+    <t>Definitely a good indication of how predictive efficiency ratings can be.  Indeed, they accounted not just for defensive/offensive efficiencies, but also for tempo to give an indication of how often a team gets a chance to score.  The goal of their project (generate win probabilities) is fundamentally different than what we are trying to predict, but using Vegas point spreads could have some kind of predictive power still.  In fact, I wonder if a point spread could be somewhat predictive of an over/under (maybe games with a tight spread are more likely to be high scoring?)</t>
+  </si>
+  <si>
+    <t>Carlin 1996</t>
+  </si>
+  <si>
+    <t>As far as efficiency metrics go, they found the best ones to be those adjusted for strength of schedule. Also, whether or not the game was on a neutral court proved important.  They found the most important factors using a log loss minimization.  Perhaps this is something I should do with the very large matrix.  Though on further inspection, log loss is only usable to verify the accuracy of classifiers, not regressors.  Not sure if I could use this in a direct way, though it might be relevant to over/under or moneyline problems</t>
+  </si>
+  <si>
+    <t>A direction to go might be to simplify feature engineering and break it up into a few different models.  We have a lot of stats here, but it is possible that a lot of it is noise.  Focusing on efficiencies may be more valuable than focusing on points scored etc., though it is hard to know until we try stripping some stuff out or building simpler models</t>
+  </si>
+  <si>
+    <t>http://cs229.stanford.edu/proj2013/ChengDadeLipmanMills-PredictingTheBettingLineInNBAGames.pdf</t>
+  </si>
+  <si>
+    <t>This is a very similar project to mine.  They are using SVM models on feature sets that include "time-varying" statistics, basically normalizing for relative offensive/defensive strengths against opponent, then using SVM to make the prediction</t>
+  </si>
+  <si>
+    <t>Implement expected spread (Pythag module)</t>
+  </si>
+  <si>
+    <t>Pythag sort of implemented, though we are really implementing a spread prediction based on avgs, not the pythag.</t>
+  </si>
+  <si>
+    <t>Followup</t>
+  </si>
+  <si>
+    <t>Wow. The spread predicted based on expected outputs produces about 26% close and on the right side, but a whopping 70% on the right side.  This means expected output is highly predictive of a winner, even if it is only somewhat predictive of the actual spread.  So this model if somewhat more predictive than the regressions, but it is being fed 2016 efficiency ratings as of now.  It doesn't make sense to use that.  It may be that we should use 2014-5 ratings, or some kind of rolling average</t>
+  </si>
+  <si>
+    <t>Implement over/under</t>
+  </si>
+  <si>
+    <t>Interesting: they found that some team stats were perfect predictors of others (e.g. OREB and DREB predict total REB).  To reduce noise, they used a lasso approach --&gt; remove some predictors by reducing coefficients.  Lasso was used in conjunction with SVM classifier and bagging to get the best subset of predictors</t>
+  </si>
+  <si>
+    <t>Uses a time-varying approach to create defensive and offensive rating snapshots for two teams relative to each other: algorithm is in paper.  It has a forgetting factor and weightings for the importance of defense v. offense.  A good approach.</t>
+  </si>
+  <si>
+    <t>An interesting last step: two classifiers.  One classifier predicts whether or not a team will beat the spread.  The other predicts whether their regression model is good.  Both had about 50% accuracy.  Interesting in the sense that to bet on the spread, you don't need to know the exact spread.  You just need to know whether a team will beat it.</t>
+  </si>
+  <si>
+    <t>Should be a fusion between spread and winner predictions: a classifier that chooses over/under based on total point targets, rather than winners.  Of course, to do this, we will need to know what the over/under is from the bookmakers</t>
+  </si>
+  <si>
+    <t>Scrape bookmaker info</t>
+  </si>
+  <si>
+    <t>We want the spreads, moneylines, and over/unders that the bookmakers set.  These can be found somewhere online and scraped.  Probably want to return a numpy array (or maybe something more search efficient) with the date, teams codes/ids, and actual betting data</t>
+  </si>
+  <si>
+    <t>Attempt preprocessing filtering</t>
+  </si>
+  <si>
+    <t>Create something that runs a simple Pearson corr coefficient on the huge list of features we have from TeamSimulation.  Reducing some of these, or at least finding the most predictive, could be a good first step in finding the relative strengths/weaknesses of a really sprawling model like the one we have. Will guide future feature engineering</t>
+  </si>
+  <si>
+    <t>Have all the betting info, but it is confusing matching this to the predictions in excel, especially since I messed up the team codes in the model results.  Probably want to retool everything.  Maybe make a module dedicated to analysis, pull in the predictions and spreads both as dicts and write them team by team.</t>
+  </si>
+  <si>
+    <t>UPDATE: Did most of the comparison in excel, but I will rerun most of the models to correct the team codes issue.</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>A very thin (but real) return, even after the vig on the K-Neighbors model.  But more interestingly, this model was very good at predicting GSW's games, especially cases where they didn't cover the spread.  In 17 out of 19 cases where betting for the Warriors would have resulted in a loss, the model predicted that.  Could this just be an eccentric result, or is it indicative of a predictable pattern?  Maybe it's the case that high performing teams fail to cover the spread in a predictable fashion, even when they win the game.</t>
+  </si>
+  <si>
+    <t>The principle generalizes to the league as a whole, it appears.  In cases where the bet is ultimately lost, the model picks the successful betting strategy 72% of the time.  It does this only 36% of the time for cases where the bet is won. This could be because the model is downwardly biased --&gt; could be generally predicting that teams score less than they normally do, which would suggest a strategy of generally betting against the target team.</t>
+  </si>
+  <si>
+    <t>Upon further review, it appears that the model may just be biased.  Given that a lost bet was predicted, the model is correct only about half the time.  The same goes for cases where a winning bet was predicted.  This means that even though the model often correctly predicts a lost bet, it also gives a lot of false positives (wrongly predicts lost bets).  So this isn't very helpful for predictive purposes.</t>
+  </si>
+  <si>
+    <t>file:///Users/Alex/Downloads/Journal%20of%20Sports%20Economics-2005-Paul-390-400.pdf</t>
+  </si>
+  <si>
+    <t>Fascinating stats paper discussing bet mispricings.  Author finds that bettors tend to systematically bet for favorites, which leads bookmakers to set larger spreads in an effort to balance the action.  The end result is that the final spread is inflated and does not always reflect the MOV that the favorite is most likely to win by.</t>
+  </si>
+  <si>
+    <t>Authors' most significant finding is that bets with large favorites and a home team underdog are mispriced drastically enough to be profitable: i.e. betting on the games where the worst teams (at home) face the best teams (away) will allow you to place enough successful bets to beat the vig by a small margin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Important point here: the spreads are not the bookmakers' prediction of what will actually happen.  They are set by the action of bettors both informed and uninformed.  If the market is perfectly efficient, then the final line will be the market's best prediction.  But it is likely that earlier lines are inefficient and present opportunities for value betting.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>So if we are using spreads for a classifier/regressor, this bias should be considered.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A possible direction: focus only on these lopsided games where there are opportunities to exploit a mispriced bet.  Build a regressor that only looks at games with lopsided bets and tries to predict the spread.  Or maybe build a classifier that tries to evaluate if the bet will be successful.  Could train on JUST lopsided games for many seasons. </t>
+  </si>
+  <si>
+    <t>Though a major question remains: what features will be included in the data and how will we construct validation data? Does it make sense to use the same things we have been using?  We need features that reflect the true scoring potential of the game, so the classifier can pick up on inconsistencies between what the actual score should be and what the predicted score is.</t>
+  </si>
+  <si>
+    <t>Another possibility is to keep things the same but just train on a lot of lopsided games. Maybe that will allow the model to be more attuned to the bias and able to beat it.</t>
+  </si>
+  <si>
+    <t>Implement Mispricing Estimator</t>
+  </si>
+  <si>
+    <t>Want a classifier/regressor to look at games with large spreads.  This will require pulling together spread data with actual game data, then training a model on the very lopsided games.  A good step would be to collate spread data from multiple seasons, send it to excel, then find a way to match this with game data. Maybe do all the preprocessing in excel where it's fairly easy, then read data back into python for model training.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bet Classifier </t>
+  </si>
+  <si>
+    <t>As far as feature selection goes, we need to be mindful of how this model is going to train.  If we give the model straight gameday stats, it should be able to classify winning/losing bets fairly easily.  But when we go to make predictions with averaged data, that won't be any good because it may just make a prediction based on what our validation data's average thinks will be the game's score.  That's no better than making our own prediction based on a simple average.  Instead, if we are focusing on finding mispriced bets, we should be looking at team efficiencies and normalized stats.  Want to find bets where the spread is not reflective of the true, normalized performance of the team.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I sanitized the Basketball Reference Data so it attributes the statistics of defunct franchise to their predecessors, but it is unclear if Covers.com does this.  For NOP, they only have data that starts in 2002-3 season, when the New Orleans Hornets were founded.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>So that is a huge chunk of missing data from the pre-Bobcat Charlotte Hornets.  This is the only inconsistency.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  It correctly attributes SEA statistics to modern day OKC, VAN to modern day MEM, WSB to WAS, and NJN to BRK.  For the current day Charlotte Hornets, lines are available starting in 2004-5, the season the Bobcats were founded, as expected.</t>
+    </r>
+  </si>
+  <si>
+    <t>Classifier built, but preprocess filtering and validation data construction are still needed.  Right now the classifier is estimating 2015-6 bet outcomes with the true game data and is successful around 80% of the time</t>
+  </si>
+  <si>
+    <t>SelectFromModel: This would be a good approach to reduce the number of features, especially since we can keep turning up the threshold until we are down to a desired number of features (if we have one in mind a priori). Should be a fairly simple approach to at least see what we get.</t>
+  </si>
+  <si>
+    <t>Above the mean: ['MP', '2P%', '3P%', 'FT%', 'PF', '2P%.1', '3P%.1', 'FT%.1', 'Opp Last 80 Game Wins']                                                                                                                Above 0.25*mean: ['MP', 'FG%', '2P%', '3PA', '3P%', 'FTA', 'FT%', 'PF', 'FG%.1', '2P%.1', '3PA.1', '3P%.1', 'FTA.1', 'FT%.1', 'Opp Last 80 Game Wins']</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Observations:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It's good to see that mostly percentage based metrics were picked as the predictive ones, though I'm a bit surprised Defensive and Offensive Efficiencies didn't make the cut.  Also surprising that Minutes Played was included.  This could have something to do with overtime (games that go into overtime may be likely upsets), but it would be hard to construct the minutes played for validation data.  Also, interesting that Opp's Last 80 Wins was included, but Home Team's wasn't.  I remember reading a footnote about a similar finding in a different paper.  It had something to do with the relative importance of Defense/Offensive efficiencies for road/home teams.  This might suggest something about the hot hand and overbetting on it?  Might want to look at the Paul and Weinbach paper regarding that.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: According to SelectFromModel with a LinearSVC estimator, at the right are the most predictive features (above the mean):</t>
+    </r>
+  </si>
+  <si>
+    <t>Adding OT Periods to the sets leads to MP dropping out and OT Periods coming in.  So this is cool.  It means that the amount of overtime played is predictive of the way the bet went.  Still need a good way to estimate whether or not OT is likely for a game, but this is a start.  Next, try replacing OT Periods with just a Binary for whether or not there was OT.  This we may be able to estimate accurately with a bernoulli distribution.  Also, try tearing this metric out altogether.  I would be curious to see if our model is still good on the unaveraged validation data.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For Minutes Played:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This could be a useful feature, but in it's current form, it might be hard for the model to interpret it, and it would be really hard to construct validation data for this (how can we reasonably guess how many minutes will be played in a game?).  If we change this to a binary for OT/No OT, we might be able to make the feature easier to interpret and construct reasonable validation data.  So, we need to model the probability distribution of Bernoulli random variable.  The simplest way to do this is to just average the OT/Non OT binaries (the maximum likelihood estimator, OT Games/All Games) in the training set.  But, there is a more precise way to do this with a Bayesian Parameter Estimation.  Basically, we start with a prior estimation of the probability of overtime, then update the probility of our estimation given the data.  See http://homepages.inf.ed.ac.uk/rbf/CVonline/LOCAL_COPIES/AV0809/eshky.pdf.  With the probablility of overtime established, maybe we feed that into the validation data as a bernoulli random distribution with the given estimated parameter?  Here, we may be able to use a Naive Bayes classifier.  What these are doing is making an estimation of the probability, then classifying games based on a decision rule.  If we carefully examine what kind of decision rule we are using, this could do the trick. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> So essentially, we are now looking at two layers of prediction: one for the parameter estimations, then one for our final predictions on the betting outcome.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,8 +1083,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,12 +1111,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -401,7 +1121,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -421,8 +1141,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -433,12 +1155,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -453,16 +1169,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -472,6 +1188,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -481,6 +1198,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -810,32 +1528,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="120">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="120">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -845,8 +1566,70 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="165">
+      <c r="A3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="165">
+      <c r="A5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105">
+      <c r="A6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120">
+      <c r="C7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -857,21 +1640,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -879,21 +1663,24 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="45">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -901,127 +1688,177 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="75">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="90">
+      <c r="A10" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75">
+      <c r="A11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="75">
+      <c r="A12" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="90">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45">
-      <c r="A5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="10"/>
+      <c r="C16" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1036,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C186" sqref="C186:C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1049,275 +1886,1049 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>145.56</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>34.61</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>15.11</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="C20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="C21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="C22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>3060.45</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="C26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="C27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="C28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="C29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="C30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="C31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="C32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51">
+        <v>2317.7199999999998</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
+    <row r="53" spans="1:3">
+      <c r="C53" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
+    <row r="54" spans="1:3">
+      <c r="C54" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="C61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62">
+        <v>2369</v>
+      </c>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="C66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="C73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="C75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="C77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78">
+        <v>2390.56</v>
+      </c>
+      <c r="C78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="C79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="C80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="C97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="C98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99">
+        <v>2443.64</v>
+      </c>
+      <c r="C99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="C100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="C101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="C102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="C103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="C104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="C105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="C106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="C107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="C108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="C109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="C110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="C111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="C112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="C113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="C114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116">
+        <v>2377.11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="C117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="C118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="C119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="C120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="C121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="C122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="C123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="C124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="C125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="C126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="C127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="C128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="C129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="C130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="C131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="C132" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>212</v>
+      </c>
+      <c r="B134">
+        <v>2352.3200000000002</v>
+      </c>
+      <c r="C134" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="C135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="C136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="C137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="C138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="C139" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="C140" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="C141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="C142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="C143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="C144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="C145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="C146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="C147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="C148" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="C149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="C150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="C151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="C152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>213</v>
+      </c>
+      <c r="B154">
+        <v>3332</v>
+      </c>
+      <c r="C154" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="C155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="C156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="C157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="C158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="C159" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="C160" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="C161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="C162" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="C163" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="C164" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="C165" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="C166" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="C167" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="C168" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="C169" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="C170" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="C171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>214</v>
+      </c>
+      <c r="B173">
+        <v>2685.66</v>
+      </c>
+      <c r="C173" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="C174" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="C175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="C176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="C177" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="C178" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="C179" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="C180" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="C181" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="C182" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="C183" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="C184" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>232</v>
+      </c>
+      <c r="B186">
+        <v>2384.37</v>
+      </c>
+      <c r="C186" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="C187" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="C188" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="C189" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="C190" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="C191" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="C192" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1333,46 +2944,176 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.5" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" ht="60">
+    <row r="1" spans="1:8">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="60">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="60">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="75">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="75">
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="150">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="150">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="120">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="195">
+      <c r="A10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="105">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60">
+      <c r="B12" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="120">
+      <c r="B13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="210">
+      <c r="B14" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
